--- a/Patio de Madeira.xlsx
+++ b/Patio de Madeira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacDutraPalmont\Downloads\app teste - Copia - Copia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA0EBC4-4973-4EBB-8383-1C637F10B64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F335F1-85A9-4096-9094-D4AF0DD1FE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
